--- a/Archetypes/cond_archetypes.xlsx
+++ b/Archetypes/cond_archetypes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\Archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB066EA-BCFE-49F5-9966-8832A374B7CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C7054E-A676-4E01-A05E-7B8F48DE8008}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15096" windowHeight="5988" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5556" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>item_1</t>
   </si>
@@ -28,6 +28,18 @@
     <t>item_2</t>
   </si>
   <si>
+    <t>mu</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
     <t>a_archetype_4</t>
   </si>
   <si>
@@ -59,12 +71,6 @@
   </si>
   <si>
     <t>h_archetype_3</t>
-  </si>
-  <si>
-    <t>mu</t>
-  </si>
-  <si>
-    <t>sigma</t>
   </si>
 </sst>
 </file>
@@ -427,15 +433,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -443,18 +449,24 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -462,13 +474,19 @@
       <c r="D2">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -476,13 +494,19 @@
       <c r="D3">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -490,13 +514,19 @@
       <c r="D4">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -504,13 +534,19 @@
       <c r="D5">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -518,13 +554,19 @@
       <c r="D6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -532,13 +574,19 @@
       <c r="D7">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -546,13 +594,19 @@
       <c r="D8">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -560,13 +614,19 @@
       <c r="D9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -574,9 +634,14 @@
       <c r="D10">
         <v>0.7</v>
       </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Archetypes/cond_archetypes.xlsx
+++ b/Archetypes/cond_archetypes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\Archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C7054E-A676-4E01-A05E-7B8F48DE8008}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD33CD9F-DB3D-442B-9AE0-2D0D70E9E5C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5556" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8364" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
     <t>max</t>
   </si>
   <si>
-    <t>a_archetype_4</t>
+    <t>c_arch_4</t>
   </si>
   <si>
     <t>WoS_state</t>
@@ -49,28 +49,28 @@
     <t>family_types</t>
   </si>
   <si>
-    <t>h_archetype_7</t>
-  </si>
-  <si>
-    <t>a_archetype_0</t>
-  </si>
-  <si>
-    <t>a_archetype_1</t>
-  </si>
-  <si>
-    <t>h_archetype_5</t>
-  </si>
-  <si>
-    <t>a_archetype_2</t>
-  </si>
-  <si>
-    <t>h_archetype_4</t>
-  </si>
-  <si>
-    <t>a_archetype_3</t>
-  </si>
-  <si>
-    <t>h_archetype_3</t>
+    <t>f_arch_0</t>
+  </si>
+  <si>
+    <t>c_arch_0</t>
+  </si>
+  <si>
+    <t>c_arch_1</t>
+  </si>
+  <si>
+    <t>f_arch_6</t>
+  </si>
+  <si>
+    <t>c_arch_2</t>
+  </si>
+  <si>
+    <t>c_arch_3</t>
+  </si>
+  <si>
+    <t>f_arch_5</t>
+  </si>
+  <si>
+    <t>f_arch_4</t>
   </si>
 </sst>
 </file>
@@ -436,7 +436,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -469,13 +469,13 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>99</v>
@@ -492,10 +492,10 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>99</v>
@@ -509,16 +509,16 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -529,16 +529,16 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -549,13 +549,13 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>99</v>
@@ -563,39 +563,39 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
       <c r="C7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>99</v>
@@ -603,39 +603,39 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>99</v>
@@ -643,5 +643,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Archetypes/cond_archetypes.xlsx
+++ b/Archetypes/cond_archetypes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\Archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD33CD9F-DB3D-442B-9AE0-2D0D70E9E5C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0802159-D348-4B8A-9883-55D90F8055A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8364" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -436,7 +436,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -549,10 +549,10 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -592,7 +592,7 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -629,10 +629,10 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>1.55</v>
       </c>
       <c r="E10">
         <v>2</v>

--- a/Archetypes/cond_archetypes.xlsx
+++ b/Archetypes/cond_archetypes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\Archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0802159-D348-4B8A-9883-55D90F8055A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8E959A-C6C7-44C7-9DF4-9D0D2BFE572A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8364" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -436,7 +436,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -555,7 +555,7 @@
         <v>0.5</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>99</v>
